--- a/4 курс/1 семестр/Экономика/ЛР 2/LW2.xlsx
+++ b/4 курс/1 семестр/Экономика/ЛР 2/LW2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Первоначальная стоимость, тыс. руб.</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Экон нал на приб дисконт, т.р.</t>
+  </si>
+  <si>
+    <t>Собственные источники, т.р.</t>
   </si>
 </sst>
 </file>
@@ -128,10 +131,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,16 +464,17 @@
     <col min="21" max="21" width="11.44140625" customWidth="1"/>
     <col min="22" max="22" width="10.44140625" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>2400</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
@@ -483,51 +487,54 @@
         <f>1/B2*100</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -584,15 +591,19 @@
         <f>V2/(1+$B$3/100)^S2</f>
         <v>46.783625730994139</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y2" s="1">
+        <f>SUM(L24:L32)-SUM(L2:L10)+SUM(P13:P21)-SUM(P2:P10)+SUM(W2:W10)</f>
+        <v>195.19011173511782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -643,7 +654,7 @@
         <v>22.799037880601432</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -698,7 +709,7 @@
         <v>3.9998312071230648</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -752,7 +763,7 @@
         <v>-7.4070948280056559</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -806,7 +817,7 @@
         <v>-13.336874344054506</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -860,7 +871,7 @@
         <v>-15.831997084585124</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J8">
         <v>7</v>
       </c>
@@ -908,7 +919,7 @@
         <v>-16.343649806616959</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J9">
         <v>8</v>
       </c>
@@ -956,7 +967,7 @@
         <v>-15.784151642073763</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J10">
         <v>9</v>
       </c>
@@ -1004,30 +1015,30 @@
         <v>-14.695639453532312</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="J12" s="4" t="s">
+    <row r="12" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H13" s="1">
         <f>B1-K13</f>
         <v>1866.6666666666667</v>
@@ -1060,7 +1071,7 @@
         <v>41.169590643274852</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H14" s="1">
         <f>H13-K13</f>
         <v>1333.3333333333335</v>
@@ -1093,7 +1104,7 @@
         <v>28.088414668900967</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H15" s="1">
         <f t="shared" ref="H15:H21" si="13">H14-K14</f>
         <v>918.5185185185187</v>
@@ -1126,7 +1137,7 @@
         <v>19.359183042475607</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H16" s="1">
         <f t="shared" si="13"/>
         <v>622.2222222222224</v>
@@ -1325,25 +1336,25 @@
       </c>
     </row>
     <row r="23" spans="8:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
